--- a/cluster/cluster_all.xlsx
+++ b/cluster/cluster_all.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/cluster/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC0D9912BEA3C170BBC9388ADE6745E3F3B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C836D90-4BB2-445F-9DFC-17A42B15CA08}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="32655" yWindow="960" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -310,12 +304,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -323,15 +317,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -377,68 +364,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,7 +412,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -510,7 +446,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -545,10 +480,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -721,16 +655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -774,7 +706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -818,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -862,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -906,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -950,7 +882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -994,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1170,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1346,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1460,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1521,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1626,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1661,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1731,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1766,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1801,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1836,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1871,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1976,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2011,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2046,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2081,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2107,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2159,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2185,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2211,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2237,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2263,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -2341,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2367,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2393,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2419,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2471,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2479,7 +2411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -2496,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,7 +2436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2512,7 +2444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2529,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -2537,7 +2469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -2571,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -2588,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -2605,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -2622,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -2639,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -2656,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -2673,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -2690,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -2707,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -2724,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -2741,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -2775,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -2792,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -2809,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -2826,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -2843,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -2860,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -2877,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -2894,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -2911,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -2919,7 +2851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -2927,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -2935,7 +2867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -2944,18 +2876,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:N82">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>